--- a/WaterSupplyControl_web/WaterSupplyControl.xlsx
+++ b/WaterSupplyControl_web/WaterSupplyControl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emchenko\Documents\Arduino\WaterSupplyControl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emchenko\Documents\Arduino\WaterSupplyControl_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F170343F-3FC5-4070-9652-38328A225ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2540981B-09BF-45AB-9B54-CB2A65D3A3CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{48510476-7EAF-4049-AE02-C36CE8CD78F1}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t>Contactless water sensor</t>
   </si>
@@ -288,6 +288,54 @@
   </si>
   <si>
     <t>3V</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>relay H2_2</t>
+  </si>
+  <si>
+    <t>relay H2_1</t>
+  </si>
+  <si>
+    <t>relay H1_1</t>
+  </si>
+  <si>
+    <t>led</t>
+  </si>
+  <si>
+    <t>no int</t>
+  </si>
+  <si>
+    <t>low at start</t>
+  </si>
+  <si>
+    <t>занят при загрузке</t>
+  </si>
+  <si>
+    <t>relay H1_2</t>
+  </si>
+  <si>
+    <t>relay H3_2</t>
+  </si>
+  <si>
+    <t>relay H3_1</t>
+  </si>
+  <si>
+    <t>Wsens 1</t>
+  </si>
+  <si>
+    <t>Wsens 2</t>
+  </si>
+  <si>
+    <t>Wsen не получается, всегда 1; relay - на старте всегда Low. Как его использовать?!</t>
+  </si>
+  <si>
+    <t>Wsens 3</t>
   </si>
 </sst>
 </file>
@@ -361,8 +409,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -370,7 +417,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -378,7 +424,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -386,14 +432,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +458,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -425,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -441,10 +511,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -467,13 +540,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -534,15 +607,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -572,7 +645,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="247650" y="2032000"/>
+          <a:off x="190500" y="2057400"/>
           <a:ext cx="6877050" cy="4819650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -953,112 +1026,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C6101F-AAA7-461F-8460-D35B041821C2}">
-  <dimension ref="A3:E22"/>
+  <dimension ref="A3:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>70</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>72</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>76</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>74</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>81</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>83</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D22" s="6">
-        <f>COUNTA(D2:D19)</f>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E22" s="6">
+        <f>COUNTA(E2:E19)</f>
         <v>10</v>
       </c>
     </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E40" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E41" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E42" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E43" s="13"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1067,7 +1283,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1128,10 +1344,10 @@
       <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="D39" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G39" t="s">
+      <c r="E39" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1142,7 +1358,7 @@
       <c r="C40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="D40" s="16" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1150,10 +1366,10 @@
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1161,10 +1377,10 @@
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="D42" s="14" t="s">
         <v>9</v>
       </c>
     </row>

--- a/WaterSupplyControl_web/WaterSupplyControl.xlsx
+++ b/WaterSupplyControl_web/WaterSupplyControl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emchenko\Documents\Arduino\WaterSupplyControl_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2540981B-09BF-45AB-9B54-CB2A65D3A3CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E212BBEF-AB7E-4DCF-9BDF-2CF6F1E306F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{48510476-7EAF-4049-AE02-C36CE8CD78F1}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
   <si>
     <t>Contactless water sensor</t>
   </si>
@@ -336,13 +336,22 @@
   </si>
   <si>
     <t>Wsens 3</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                              </t>
+  </si>
+  <si>
+    <t>Wflow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,14 +410,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="7" tint="0.59999389629810485"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -438,8 +439,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +499,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -495,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -508,17 +543,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1029,7 +1067,7 @@
   <dimension ref="A3:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+      <selection activeCell="E37" sqref="E37:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1139,7 +1177,7 @@
       <c r="C27" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1175,6 +1213,9 @@
       <c r="C30" t="s">
         <v>94</v>
       </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
       <c r="G30" t="s">
         <v>101</v>
       </c>
@@ -1197,7 +1238,7 @@
       <c r="B32">
         <v>14</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1208,7 +1249,7 @@
       <c r="B33">
         <v>12</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="9" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1219,7 +1260,7 @@
       <c r="B34">
         <v>13</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1237,41 +1278,24 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E39" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E40" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E43" s="13"/>
+      <c r="E43" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1344,7 +1368,7 @@
       <c r="C39" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
@@ -1358,7 +1382,7 @@
       <c r="C40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1366,10 +1390,10 @@
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1377,10 +1401,10 @@
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1397,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8F8D08-EB2F-4FE7-8856-D5C79DC74A6F}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1409,51 +1433,60 @@
     <col min="2" max="2" width="33.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="G3" s="8" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G3" s="18" t="s">
         <v>66</v>
       </c>
       <c r="H3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="16" t="s">
         <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -1461,7 +1494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1469,7 +1502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1477,7 +1510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -1485,7 +1518,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -1493,7 +1526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -1501,15 +1534,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
@@ -1517,7 +1553,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -1525,7 +1561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -1533,7 +1569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>

--- a/WaterSupplyControl_web/WaterSupplyControl.xlsx
+++ b/WaterSupplyControl_web/WaterSupplyControl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emchenko\Documents\Arduino\WaterSupplyControl_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E212BBEF-AB7E-4DCF-9BDF-2CF6F1E306F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7DC45B-7D78-4BE0-9561-136A2CC44EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{48510476-7EAF-4049-AE02-C36CE8CD78F1}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="WaterFLow" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/WaterSupplyControl_web/WaterSupplyControl.xlsx
+++ b/WaterSupplyControl_web/WaterSupplyControl.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emchenko\Documents\Arduino\WaterSupplyControl_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7DC45B-7D78-4BE0-9561-136A2CC44EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521FC1E4-80DB-4C48-A0D1-511F0EF9FFA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{48510476-7EAF-4049-AE02-C36CE8CD78F1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{48510476-7EAF-4049-AE02-C36CE8CD78F1}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="2" r:id="rId1"/>
-    <sheet name="water sensor" sheetId="1" r:id="rId2"/>
-    <sheet name="WaterFLow" sheetId="3" r:id="rId3"/>
+    <sheet name="Схема" sheetId="4" r:id="rId2"/>
+    <sheet name="water sensor" sheetId="1" r:id="rId3"/>
+    <sheet name="WaterFLow" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
   <si>
     <t>Contactless water sensor</t>
   </si>
@@ -457,7 +457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +518,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -531,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -558,12 +570,20 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE7E6E6"/>
+      <color rgb="FF225686"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -642,6 +662,6295 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>217800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="108" name="Группа 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597B0C83-72DC-4004-82D6-AABFD8FF7903}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11266800" y="3833813"/>
+          <a:ext cx="472763" cy="4929187"/>
+          <a:chOff x="10962000" y="736600"/>
+          <a:chExt cx="468000" cy="4972050"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Овал 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0CDD4C5-E49E-464D-B3C7-33A50D339FE3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10962000" y="736600"/>
+            <a:ext cx="468000" cy="468000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>D0</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Овал 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7346759-071C-42AA-BCBF-34650D89D73F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10962000" y="1289050"/>
+            <a:ext cx="468000" cy="468000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>D1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Овал 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDEA0069-4F07-4067-8B42-093DAE2D48B8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10962000" y="1841500"/>
+            <a:ext cx="468000" cy="468000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>D2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Овал 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D987647-BB95-4E8B-B0C9-4DB776649620}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10962000" y="2376800"/>
+            <a:ext cx="468000" cy="468000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>D3</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Овал 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA19D4C3-26ED-4554-BF32-CDBE75CC2FE0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10962000" y="2914650"/>
+            <a:ext cx="468000" cy="468000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>D4</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Овал 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76141B1C-FB19-426D-8792-FE0AB9935777}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10962000" y="3498850"/>
+            <a:ext cx="468000" cy="468000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>D5</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Овал 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F443F89B-2FD4-4571-ADCC-6892F7DE283C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10962000" y="4051300"/>
+            <a:ext cx="468000" cy="468000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>D6</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Овал 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E3E2ED-2EBA-49E8-B940-9F269259CFEA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10962000" y="4635500"/>
+            <a:ext cx="468000" cy="468000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>D7</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Овал 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198A2246-CB28-48A8-9CFC-2E0FB5744612}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10962000" y="5240650"/>
+            <a:ext cx="468000" cy="468000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>D8</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="45" name="Группа 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6634BB5D-7F0C-434F-A8E6-6F69FD6146F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4603750" y="6572250"/>
+          <a:ext cx="2532063" cy="3103563"/>
+          <a:chOff x="1600200" y="3498850"/>
+          <a:chExt cx="2514600" cy="3130550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="Прямоугольник 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5D4C15-6F43-4A5E-BF10-EDFC4187BB95}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2971800" y="3498850"/>
+            <a:ext cx="1143000" cy="3130550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="E7E6E6">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="Прямоугольник 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94EABEC4-28D2-4DCF-B511-BB4B6F448091}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1600200" y="3498850"/>
+            <a:ext cx="1143000" cy="3130550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="E7E6E6">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="183" name="Группа 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47ED522-FEBC-4B88-A4CD-AA1C30332918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5121275" y="6572250"/>
+          <a:ext cx="139700" cy="523875"/>
+          <a:chOff x="6902450" y="933450"/>
+          <a:chExt cx="139700" cy="527050"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="179" name="Прямоугольник 178">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48204B37-3689-48B0-8C50-CD8E8134D05A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6902450" y="933450"/>
+            <a:ext cx="139700" cy="527050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="180" name="Овал 179">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED224CEF-CCEA-4EA9-8E95-48AA6EAAED32}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6915150" y="952500"/>
+            <a:ext cx="108000" cy="108000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="181" name="Овал 180">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2571CE8-1558-4E17-A325-1738A90110B9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6915150" y="1136650"/>
+            <a:ext cx="108000" cy="108000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="182" name="Овал 181">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB63642E-E183-4260-BA45-67E283215EB8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6915150" y="1314450"/>
+            <a:ext cx="108000" cy="108000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>10800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>99700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Овал 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD4AEA3-FAA2-4B46-A991-249BAE4A80F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="6997700"/>
+          <a:ext cx="468000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>3.3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>10800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>99700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Овал 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A108AE45-2C92-4C0B-94FE-FCCF2289472F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="7550150"/>
+          <a:ext cx="468000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>5V</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>10800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>99700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Овал 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7952006-43F0-4CE8-95C5-1BA813E555A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="8102600"/>
+          <a:ext cx="468000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>GND</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>10800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>99700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Овал 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1709ADFB-3B73-428D-B5CB-2FBA6F4BEEB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="8655050"/>
+          <a:ext cx="468000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>GND</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="Группа 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761D8E1E-C8F6-4553-AAB2-C67D6C2DE155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14732000" y="3833813"/>
+          <a:ext cx="3222625" cy="3833812"/>
+          <a:chOff x="11658600" y="736600"/>
+          <a:chExt cx="3200400" cy="3867150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Прямоугольник 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1BB03D-0BD5-456E-AA62-3381C1DCF162}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11658600" y="736600"/>
+            <a:ext cx="3200400" cy="3867150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="225686"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="TextBox 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0F9BEE-F8E0-46A6-BEB3-628D39B58E15}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13487400" y="920750"/>
+            <a:ext cx="1143000" cy="736600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="TextBox 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E33EB0-464A-430F-AC31-56CD5B583185}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13487400" y="1841500"/>
+            <a:ext cx="1143000" cy="736600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="TextBox 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543EE707-CDE5-43F1-BA10-91B75C607C7A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13487400" y="2762250"/>
+            <a:ext cx="1143000" cy="736600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="TextBox 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745C62A7-4253-4160-B022-1748FDC2ECD1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13487400" y="3670300"/>
+            <a:ext cx="1143000" cy="736600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Прямоугольник 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981B8728-AD37-4BA0-B977-386B8B5D5E29}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11887200" y="920750"/>
+            <a:ext cx="228600" cy="184150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Прямоугольник 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C96EDF-BA6C-48D8-BDEF-193BB7F8763F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11887200" y="1104900"/>
+            <a:ext cx="228600" cy="184150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Прямоугольник 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE0B0AC8-BADF-4041-89A7-D6ED4C542DDE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11887200" y="1289050"/>
+            <a:ext cx="228600" cy="184150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Прямоугольник 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A7156F-A8EC-4C22-AEF0-259603E2AFF5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11887200" y="1466850"/>
+            <a:ext cx="228600" cy="184150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="Прямоугольник 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F78080F-593A-41B8-B106-CC60B622FE40}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11887200" y="1657350"/>
+            <a:ext cx="228600" cy="184150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="Прямоугольник 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C68C61-FD01-40BC-AE44-6835549A0C3D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11887200" y="1841500"/>
+            <a:ext cx="228600" cy="184150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>111350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="Группа 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B50985-164B-4799-A477-0DDF82F04A44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="341538" y="3233963"/>
+          <a:ext cx="2190525" cy="1330100"/>
+          <a:chOff x="12344400" y="6759800"/>
+          <a:chExt cx="2174650" cy="1342800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="TextBox 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDEDC833-ECB5-40D5-A50F-5F3E06C2B0B8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12344400" y="6997700"/>
+            <a:ext cx="457200" cy="920750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="108000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>3V</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>SIG</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>GND</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>na</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="37" name="Прямая соединительная линия 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E333A88-AE42-48BB-A6E7-4FFC2E4EB4FC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12801600" y="7181850"/>
+            <a:ext cx="457200" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="38" name="Прямая соединительная линия 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D94345-275F-456D-A279-85BC96AEEE7F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12801600" y="7366000"/>
+            <a:ext cx="457200" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="39" name="Прямая соединительная линия 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D1F90F-3039-4741-A0A9-2E9FD7732564}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12801600" y="7550150"/>
+            <a:ext cx="457200" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="40" name="Прямая соединительная линия 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E48CB4-EE07-4293-B777-C873C3F664AC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12801600" y="7734300"/>
+            <a:ext cx="457200" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Овал 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BBAD5A-0729-4962-8659-054E1ED9FDEE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13176250" y="6759800"/>
+            <a:ext cx="1342800" cy="1342800"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>49850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Прямая со стрелкой 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F1FB50C-326F-47CF-9A04-88E951CD6220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1924050" y="3962400"/>
+          <a:ext cx="6305550" cy="3269300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Прямая со стрелкой 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3860915-68CE-452C-BD6E-8B0021000F78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1955800" y="3790950"/>
+          <a:ext cx="6273800" cy="4495800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Прямая со стрелкой 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FB1139-6E72-45CE-AC38-CA49FC9C6535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1689100" y="2025650"/>
+          <a:ext cx="1739900" cy="1758950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>89267</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Прямая со стрелкой 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72FF8153-9DEC-4C4F-A584-F44373F39E84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4660900" y="3498850"/>
+          <a:ext cx="2286367" cy="2311400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Прямая со стрелкой 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A8BB36-F7C2-477B-B2E7-860CB1C7F40A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3200400" y="2025650"/>
+          <a:ext cx="228600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Прямая со стрелкой 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745A20ED-FAB1-424F-8F73-B893CD5C1B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3200400" y="1657350"/>
+          <a:ext cx="787400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Прямая со стрелкой 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7254AE70-762C-4CA6-9D0F-8E9BCE4FEBE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3200400" y="1841500"/>
+          <a:ext cx="914400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Прямая со стрелкой 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D6B60F-783A-4C03-A3DE-B655A413EBD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4889500" y="1841500"/>
+          <a:ext cx="825500" cy="2120900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>217800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>134300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Прямая со стрелкой 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABBEAF0-E88D-4764-A9F3-1EF83A2912FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5130800" y="3949700"/>
+          <a:ext cx="4688200" cy="1524950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="77" name="Группа 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2143B8F-F256-4D98-9389-8A4DF8A2FE57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8035925" y="3305175"/>
+          <a:ext cx="690563" cy="133350"/>
+          <a:chOff x="6400800" y="3251200"/>
+          <a:chExt cx="685800" cy="133350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="76" name="Прямая соединительная линия 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F8B834-A2FC-45BE-9CFA-A65C349C1842}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6400800" y="3314700"/>
+            <a:ext cx="685800" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="Прямоугольник: скругленные углы 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FBC6DE-A4C7-44F2-8CF1-3EE86E1F3416}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6572250" y="3251200"/>
+            <a:ext cx="330200" cy="133350"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="78" name="Группа 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EF5D9A-FD6A-4679-9F37-BC3BE2492147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5721350" y="6680200"/>
+          <a:ext cx="422275" cy="346075"/>
+          <a:chOff x="4279900" y="4591050"/>
+          <a:chExt cx="488950" cy="387350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="79" name="Прямая соединительная линия 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD4F281-C74F-465C-9AFF-8802C64019AE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4279900" y="4591050"/>
+            <a:ext cx="488950" cy="387350"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="Прямоугольник: скругленные углы 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA145FDD-93C0-40F5-A221-97E6A240EA00}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2365126">
+            <a:off x="4343400" y="4699001"/>
+            <a:ext cx="330200" cy="133350"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="83" name="Группа 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B495F418-5AE6-4A09-9A41-44F70D8C620D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5408613" y="6415088"/>
+          <a:ext cx="690562" cy="133350"/>
+          <a:chOff x="6400800" y="3251200"/>
+          <a:chExt cx="685800" cy="133350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="84" name="Прямая соединительная линия 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2CBD11-4545-48CA-BBB9-E4A52C95E1C1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6400800" y="3314700"/>
+            <a:ext cx="685800" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="Прямоугольник: скругленные углы 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F47549C9-28E8-4F1C-A3D2-B38D11D6E83C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6572250" y="3251200"/>
+            <a:ext cx="330200" cy="133350"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Прямая соединительная линия 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3C044F-00AC-4F44-AFDD-352BA1117FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3994150" y="3390900"/>
+          <a:ext cx="0" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Прямая соединительная линия 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296E9BC1-43B4-4248-8A87-CB85749286DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686300" y="3390900"/>
+          <a:ext cx="0" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>217800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Прямая со стрелкой 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF709D55-FD8B-4BA6-98A4-9FC9919E9D19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5143500" y="2075500"/>
+          <a:ext cx="4675500" cy="1544000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>111350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="109" name="Группа 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1961E722-225E-47CD-AECC-BEFA7C147D2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="341538" y="1590900"/>
+          <a:ext cx="2190525" cy="1330100"/>
+          <a:chOff x="12344400" y="6759800"/>
+          <a:chExt cx="2174650" cy="1342800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="TextBox 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D768C34D-9564-4B5C-98A4-2493D38D6D76}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12344400" y="6997700"/>
+            <a:ext cx="457200" cy="920750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="108000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>3V</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>SIG</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>GND</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>na</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="111" name="Прямая соединительная линия 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16CAF9D2-5CDA-4619-8E22-A50DFC14A93D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12801600" y="7181850"/>
+            <a:ext cx="457200" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="112" name="Прямая соединительная линия 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79D8DE9-40DC-4EC2-8919-004A2D7F500E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12801600" y="7366000"/>
+            <a:ext cx="457200" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="113" name="Прямая соединительная линия 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDB27AF-CA03-4F27-8979-971AFB2FC5EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12801600" y="7550150"/>
+            <a:ext cx="457200" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="114" name="Прямая соединительная линия 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A696F6B1-E138-4D13-8150-C6793817B5D1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12801600" y="7734300"/>
+            <a:ext cx="457200" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="Овал 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C301357-6BBB-4051-A835-37454DB9ED79}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13176250" y="6759800"/>
+            <a:ext cx="1342800" cy="1342800"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>35150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="116" name="Группа 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6915EC3-B8D7-4651-863E-1670A57C6727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="5842226" y="619350"/>
+          <a:ext cx="2155600" cy="1352325"/>
+          <a:chOff x="12344400" y="6759800"/>
+          <a:chExt cx="2174650" cy="1342800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="117" name="TextBox 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFD9A35-9D1D-4B3F-A7D8-E174510980B1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12344400" y="6997700"/>
+            <a:ext cx="457200" cy="920750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="108000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>3V</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>SIG</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>GND</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>na</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="118" name="Прямая соединительная линия 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C51D542-2079-4486-9085-5491B14D227C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12801600" y="7181850"/>
+            <a:ext cx="457200" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="119" name="Прямая соединительная линия 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876B7CE4-06B1-4E2D-8C42-694230E866CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12801600" y="7366000"/>
+            <a:ext cx="457200" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="120" name="Прямая соединительная линия 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FD3B7E-07DE-41DE-80D5-4C367E03FF01}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12801600" y="7550150"/>
+            <a:ext cx="457200" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="121" name="Прямая соединительная линия 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC84274-D93E-4032-9FAF-73649EF2DBB9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12801600" y="7734300"/>
+            <a:ext cx="457200" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="122" name="Овал 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5ADEB2-AA85-4E54-B33A-9A372E11A341}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13176250" y="6759800"/>
+            <a:ext cx="1342800" cy="1342800"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="Прямая со стрелкой 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030DE66F-B659-414E-B040-F3FFFE6AFA9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2508250" y="2413000"/>
+          <a:ext cx="939800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="rnd" cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="Прямая со стрелкой 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D06C468-4D4F-4529-8C32-31C163485800}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2514600" y="736600"/>
+          <a:ext cx="914400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="Прямая со стрелкой 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB440F5-7717-4E05-9E4F-78909CDE13B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2514600" y="920750"/>
+          <a:ext cx="914400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Прямая со стрелкой 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B8FA384-E51D-4EED-A2A2-1F21A34035DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3429000" y="920750"/>
+          <a:ext cx="1428750" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="Прямая со стрелкой 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904BD6FB-AF47-45F5-9E87-EB965B51207E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3429000" y="552450"/>
+          <a:ext cx="1504950" cy="3594100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="Прямая со стрелкой 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3284A6-EDB0-4FC5-A719-B474CE348075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3448050" y="2578100"/>
+          <a:ext cx="2857500" cy="2863850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="Прямая со стрелкой 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EFA355-58F5-4970-9A8A-5B0111B93F45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4800600" y="2393950"/>
+          <a:ext cx="914400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="Прямая со стрелкой 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0F9E43-C815-40D0-AF4C-DF30A79E7972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4800600" y="1289050"/>
+          <a:ext cx="685800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="Прямая со стрелкой 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F654C4-59C3-4468-A422-1B88E01927F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4794250" y="1473200"/>
+          <a:ext cx="463550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="Прямая со стрелкой 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB11B090-A9AE-4FF3-AFA1-CCB0E15DD5F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5257800" y="1473200"/>
+          <a:ext cx="349250" cy="4133850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="Прямая со стрелкой 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899C21C2-68C4-4466-9062-4F8C57CF5AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5486400" y="1289050"/>
+          <a:ext cx="768350" cy="4864100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="Прямая со стрелкой 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85AA836-E208-43D9-86DE-B3D07663896F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4692650" y="1104900"/>
+          <a:ext cx="1022350" cy="4883150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>49850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>217800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="Прямая со стрелкой 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB00920-CEC8-4FC2-BF41-2875EAA391E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6521450" y="3364550"/>
+          <a:ext cx="4669150" cy="2814000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="157" name="Группа 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB1F673-EAB5-4150-85F5-24C8E57E3D6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5472113" y="6818313"/>
+          <a:ext cx="633412" cy="579437"/>
+          <a:chOff x="4279900" y="4591050"/>
+          <a:chExt cx="488950" cy="387350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="158" name="Прямая соединительная линия 157">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B112074-2151-4164-B2D2-33E21ED9DBE8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="4279900" y="4591050"/>
+            <a:ext cx="488950" cy="387350"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="159" name="Прямоугольник: скругленные углы 158">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6171569B-7A1B-4FEC-996D-CBBA11FCB446}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="2617481">
+            <a:off x="4443223" y="4760377"/>
+            <a:ext cx="226782" cy="89744"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="Прямая со стрелкой 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10978FF2-FD23-490C-883B-BB4A6B11C687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3886200" y="5416550"/>
+          <a:ext cx="736600" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="Прямая со стрелкой 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2CC8DB-93E6-4CA8-9DAE-E041C6475FD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3886200" y="6997700"/>
+          <a:ext cx="1016000" cy="463550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="206" name="Группа 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5ED8B89-CF20-4362-9CD4-6BBC0395F539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5121275" y="8593138"/>
+          <a:ext cx="139700" cy="523875"/>
+          <a:chOff x="6902450" y="933450"/>
+          <a:chExt cx="139700" cy="527050"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="207" name="Прямоугольник 206">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3958EA-9724-46AB-86A5-6676C813B705}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6902450" y="933450"/>
+            <a:ext cx="139700" cy="527050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="208" name="Овал 207">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F2735E-A77E-41EC-AC49-C1636D8EE82F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6915150" y="952500"/>
+            <a:ext cx="108000" cy="108000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="209" name="Овал 208">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB221FCD-C030-46EE-AA37-CFB642ED0287}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6915150" y="1136650"/>
+            <a:ext cx="108000" cy="108000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="210" name="Овал 209">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48933C35-64CD-42ED-9E56-A0D8C5F2257D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6915150" y="1314450"/>
+            <a:ext cx="108000" cy="108000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="Прямая со стрелкой 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8EC287-679A-40FC-8BB2-83126FA226E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="5708650"/>
+          <a:ext cx="0" cy="1289050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>217800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="Прямая со стрелкой 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D563E4C-E731-4301-AD78-F79522898885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4908550" y="4452300"/>
+          <a:ext cx="6282050" cy="3205800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>80407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="Прямая со стрелкой 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7115C299-A07F-4CEC-97A5-06F6351C63DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3657600" y="7262257"/>
+          <a:ext cx="1257300" cy="573643"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="Прямая со стрелкой 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1F8EE7-76F3-486F-8140-3D668888D8EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3657600" y="5988050"/>
+          <a:ext cx="1727200" cy="641350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="Прямая со стрелкой 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF3F86F-FEDA-4A3A-959D-10F90FC490FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3657600" y="6629402"/>
+          <a:ext cx="0" cy="622298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>107952</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="175" name="Прямая со стрелкой 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8BD8BB-E270-4F9D-B105-7B22A6B78D6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3657600" y="5892800"/>
+          <a:ext cx="1479550" cy="107952"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>63502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="Прямая со стрелкой 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC955F7-C710-4482-8391-5F3BB19D14EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3657600" y="5772152"/>
+          <a:ext cx="1479550" cy="120648"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="Прямая со стрелкой 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362541AB-68FB-49D9-8BFD-B819F887F8B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3657600" y="5416550"/>
+          <a:ext cx="1479550" cy="107950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="Прямая со стрелкой 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{324B24E7-9741-4B2B-AC61-166C3EC5A6A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3657600" y="5524500"/>
+          <a:ext cx="1479550" cy="69850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="193" name="Прямая со стрелкой 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4EC5C7-E3C1-4C02-A530-2F51B5C6C1BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2971800" y="2578100"/>
+          <a:ext cx="1143000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="Прямая со стрелкой 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045C5E4B-D7FC-4355-A6D0-8BF0B254597F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2971800" y="2393950"/>
+          <a:ext cx="1143000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="195" name="Прямая со стрелкой 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2968AB2-EEFA-454A-9366-A278990F8A50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2952750" y="2209800"/>
+          <a:ext cx="1162050" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="Прямая со стрелкой 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2B43A4-5890-44FB-91C4-6DFEB90F671C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2971800" y="2025650"/>
+          <a:ext cx="1143000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>204591</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="Прямая со стрелкой 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6EB1A2D-51FD-44E3-9FC3-4AF886008A0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4090791" y="9112251"/>
+          <a:ext cx="1040009" cy="387349"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="213" name="Прямая со стрелкой 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E08768-64AC-4B9C-80C9-F8CB9AC15EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2038350" y="8737601"/>
+          <a:ext cx="3105150" cy="1136649"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>107951</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>64925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="214" name="Прямая со стрелкой 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDD1A9C-0EB2-4776-862B-6A5240A0CDA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3206750" y="8921751"/>
+          <a:ext cx="1930401" cy="718974"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="221" name="Прямая со стрелкой 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F92EA7-92BD-446A-9E47-08B33EA6BEC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1371600" y="9493250"/>
+          <a:ext cx="2743200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>112743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>112743</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="227" name="Прямая со стрелкой 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9A1007-5C59-4B3F-8527-F49AECBB9C2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1365250" y="9872693"/>
+          <a:ext cx="692150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="229" name="Прямая со стрелкой 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACACA48E-71BA-4E62-AFDE-DDC9CB0BED0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1371600" y="9658350"/>
+          <a:ext cx="1828801" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1053,7 +7362,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -1067,8 +7403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C6101F-AAA7-461F-8460-D35B041821C2}">
   <dimension ref="A3:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1304,6 +7640,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC44C08-A1D5-4906-9988-52ECBDC253C6}">
+  <dimension ref="B36:AE54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="36" spans="20:31" x14ac:dyDescent="0.35">
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="20:31" x14ac:dyDescent="0.35">
+      <c r="T37" s="10"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+    </row>
+    <row r="38" spans="20:31" x14ac:dyDescent="0.35">
+      <c r="T38" s="10"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+    </row>
+    <row r="39" spans="20:31" x14ac:dyDescent="0.35">
+      <c r="T39" s="10"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+    </row>
+    <row r="40" spans="20:31" x14ac:dyDescent="0.35">
+      <c r="T40" s="10"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+    </row>
+    <row r="41" spans="20:31" x14ac:dyDescent="0.35">
+      <c r="T41" s="10"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="23"/>
+    </row>
+    <row r="48" spans="20:31" x14ac:dyDescent="0.35">
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0748FA8F-6B61-4D16-A1AC-B4D429E05653}">
   <dimension ref="A1:J44"/>
   <sheetViews>
@@ -1420,12 +7870,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8F8D08-EB2F-4FE7-8856-D5C79DC74A6F}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/WaterSupplyControl_web/WaterSupplyControl.xlsx
+++ b/WaterSupplyControl_web/WaterSupplyControl.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emchenko\Documents\Arduino\WaterSupplyControl_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521FC1E4-80DB-4C48-A0D1-511F0EF9FFA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B5FFDB-39A4-490F-A7F3-0F977018D09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{48510476-7EAF-4049-AE02-C36CE8CD78F1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{48510476-7EAF-4049-AE02-C36CE8CD78F1}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="2" r:id="rId1"/>
     <sheet name="Схема" sheetId="4" r:id="rId2"/>
-    <sheet name="water sensor" sheetId="1" r:id="rId3"/>
-    <sheet name="WaterFLow" sheetId="3" r:id="rId4"/>
+    <sheet name="Двигатель" sheetId="5" r:id="rId3"/>
+    <sheet name="water sensor" sheetId="1" r:id="rId4"/>
+    <sheet name="WaterFLow" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
   <si>
     <t>Contactless water sensor</t>
   </si>
@@ -346,6 +347,15 @@
   </si>
   <si>
     <t>Wflow</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -543,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -572,6 +582,9 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -580,6 +593,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF4472C4"/>
+      <color rgb="FFFFFFFF"/>
       <color rgb="FFE7E6E6"/>
       <color rgb="FF225686"/>
     </mruColors>
@@ -3384,14 +3399,14 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>169862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3406,7 +3421,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8035925" y="3305175"/>
+          <a:off x="8035925" y="3273425"/>
           <a:ext cx="690563" cy="133350"/>
           <a:chOff x="6400800" y="3251200"/>
           <a:chExt cx="685800" cy="133350"/>
@@ -6951,6 +6966,2243 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D5152D-2551-4CD3-95A2-3C2D0E4F0332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="818745" y="734979"/>
+          <a:ext cx="2456234" cy="1102468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>234013</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>32425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Блок-схема: узел 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339C2014-4F27-4ED6-895F-468B7D3BEECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1052758" y="883595"/>
+          <a:ext cx="71327" cy="72453"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1631</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>151318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>72958</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40027</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Блок-схема: узел 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1C0CDE-356F-4467-B5C7-824F2EE08D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1639120" y="886297"/>
+          <a:ext cx="71327" cy="72453"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234013</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>151318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>32425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40027</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Блок-схема: узел 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6A0F5E-369E-4FD5-B8CD-BD391C3D1506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2963162" y="886297"/>
+          <a:ext cx="71327" cy="72453"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>234013</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>32425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Блок-схема: узел 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F6789C-942E-4650-9D25-0E25F8511F6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1052758" y="1618574"/>
+          <a:ext cx="71327" cy="72453"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>269142</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>67554</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Блок-схема: узел 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11107274-3920-4DCB-9D4C-BD053B893434}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1633716" y="1618574"/>
+          <a:ext cx="71327" cy="72453"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>234014</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>32426</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Блок-схема: узел 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5AE071-F610-4A19-8BEA-851741F23349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2690248" y="1618574"/>
+          <a:ext cx="71327" cy="72453"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234013</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>32425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Блок-схема: узел 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F610BB60-843B-4B02-ADEE-A39BD62ED42A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2963162" y="1618574"/>
+          <a:ext cx="71327" cy="72453"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>193481</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>151318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>264808</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40027</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Блок-схема: узел 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9437FB-4E0E-4169-8533-69FF8C07BC4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1830970" y="886297"/>
+          <a:ext cx="71327" cy="72453"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>234013</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32426</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Блок-схема: узел 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB09165-A690-49AB-88D2-4EEDDBF91ACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1325673" y="1618574"/>
+          <a:ext cx="71327" cy="72453"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>193481</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>264808</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>37325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Блок-схема: узел 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88989BB5-1C5C-4AC2-B79D-3B48293710E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1830970" y="1618574"/>
+          <a:ext cx="71327" cy="72453"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>186446</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>27021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>186447</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>27021</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Овал 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7014770F-E446-49CC-8E65-BEDE466AA3A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1005191" y="210766"/>
+          <a:ext cx="1091660" cy="1102468"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4472C4">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234014</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>151319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>32426</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40027</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Блок-схема: узел 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BFB72C5-6380-47B0-916A-D8A0D89C59E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1598588" y="1070042"/>
+          <a:ext cx="71327" cy="72453"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234014</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>159424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>32426</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>48133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Блок-схема: узел 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27A2ED3-790F-4FB0-B953-FFB544142220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1598588" y="343169"/>
+          <a:ext cx="71327" cy="72453"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37295</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>151318</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Прямая со стрелкой 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13809B2-99AB-4016-B7EA-76366061D641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1637490" y="1102468"/>
+          <a:ext cx="37294" cy="886297"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>72958</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>193481</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3801</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Прямая со стрелкой 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491412E0-842B-403D-8157-CCF870ECEE03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="5" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1710447" y="2024992"/>
+          <a:ext cx="120523" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31891</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148617</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Прямая со стрелкой 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9BEBB12-7ECA-4C8C-8B58-2A01DB2D0111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1669380" y="1102468"/>
+          <a:ext cx="1059769" cy="1618575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Прямая со стрелкой 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EC620D-7AAB-4032-BF4D-FD333A71B281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2729149" y="1102469"/>
+          <a:ext cx="545830" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="dbl">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5404</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>183744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>183744</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Прямая со стрелкой 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D89A8339-7F32-43BE-9FF8-4E7C1C4C0230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1642893" y="367489"/>
+          <a:ext cx="1632086" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>118893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35129</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68499</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="Группа 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5920F2EF-6164-4681-BE9E-FF2F9A73A6ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1072746" y="1956340"/>
+          <a:ext cx="599872" cy="133350"/>
+          <a:chOff x="6400800" y="3251200"/>
+          <a:chExt cx="685800" cy="133350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="36" name="Прямая соединительная линия 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC6D38A5-D109-486D-B1CD-67D7341DF12D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6400800" y="3314700"/>
+            <a:ext cx="685800" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="Прямоугольник: скругленные углы 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32EE7A35-18E7-4918-BFAA-44D9D406DE61}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6572250" y="3251200"/>
+            <a:ext cx="330200" cy="133350"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>232385</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>129702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>13512</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>79308</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="Группа 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558254B4-E181-41BE-AA11-DFCCAC8F685B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1869874" y="1967149"/>
+          <a:ext cx="599872" cy="133350"/>
+          <a:chOff x="6400800" y="3251200"/>
+          <a:chExt cx="685800" cy="133350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="39" name="Прямая соединительная линия 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9195026A-B4DA-42C9-AEA3-B66FF6883907}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6400800" y="3314700"/>
+            <a:ext cx="685800" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Прямоугольник: скругленные углы 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870725B2-DBDA-4560-A85F-AEDF51688E70}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6572250" y="3251200"/>
+            <a:ext cx="330200" cy="133350"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>72958</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>193481</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3801</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Прямая со стрелкой 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26CA2A4-BE3A-4932-8635-A8B4D501A114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1710447" y="2759971"/>
+          <a:ext cx="120523" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>269677</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Прямая соединительная линия 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107F6450-97BF-4136-95E6-39C34DC1C5FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1088422" y="2058516"/>
+          <a:ext cx="3239" cy="697654"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3239</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Прямая соединительная линия 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632B7386-C305-46A9-919B-65A2AA71BC17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2456234" y="2058516"/>
+          <a:ext cx="3239" cy="697654"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>70256</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>8106</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB6679E-97BD-4572-9184-80B53F43149A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="818745" y="3123660"/>
+          <a:ext cx="889000" cy="375595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202660</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="TextBox 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB65ED84-6DBC-49AB-A7E0-9CF65ABDC359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1840149" y="3115554"/>
+          <a:ext cx="889000" cy="375595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>234013</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>32425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Блок-схема: узел 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD15A680-6E3D-4962-AB41-CD094D824B4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1052758" y="3139873"/>
+          <a:ext cx="71327" cy="72452"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>234013</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32426</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Блок-схема: узел 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097D57EE-F650-4F86-A07F-4A81E2E4BD0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1325673" y="3139873"/>
+          <a:ext cx="71327" cy="72452"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>269142</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>67554</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Блок-схема: узел 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51BC104C-25E0-4BBA-A347-631246996CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1633716" y="3134469"/>
+          <a:ext cx="71327" cy="72452"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>204291</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2703</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Блок-схема: узел 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89EE56B-C531-4983-A5A6-27C51227C57C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1841780" y="3134469"/>
+          <a:ext cx="71327" cy="72452"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236716</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>35128</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Блок-схема: узел 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E29B1EA-8ED2-4841-88DF-50635F5586F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2147120" y="3134469"/>
+          <a:ext cx="71327" cy="72452"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>239418</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>10809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>37830</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Блок-схема: узел 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1F9A96-51FA-4DD2-BA17-7CEE31DD9591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2422737" y="3134469"/>
+          <a:ext cx="71327" cy="72452"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2702</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>10808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Прямая соединительная линия 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA0BB609-B034-461C-8A44-8A4B5B24C86F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1913106" y="3501957"/>
+          <a:ext cx="543128" cy="172937"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>272915</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Прямая соединительная линия 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97612B71-28EB-48E9-90A2-24ADC55FF4D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1091660" y="3504660"/>
+          <a:ext cx="545829" cy="170234"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7643,8 +9895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC44C08-A1D5-4906-9988-52ECBDC253C6}">
   <dimension ref="B36:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD71" sqref="AD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7754,6 +10006,82 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499C18B1-AF77-434B-B53B-6B071AD3B070}">
+  <dimension ref="D11:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D16" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D17" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0748FA8F-6B61-4D16-A1AC-B4D429E05653}">
   <dimension ref="A1:J44"/>
   <sheetViews>
@@ -7870,7 +10198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8F8D08-EB2F-4FE7-8856-D5C79DC74A6F}">
   <dimension ref="A1:L24"/>
   <sheetViews>

--- a/WaterSupplyControl_web/WaterSupplyControl.xlsx
+++ b/WaterSupplyControl_web/WaterSupplyControl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emchenko\Documents\Arduino\WaterSupplyControl_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B5FFDB-39A4-490F-A7F3-0F977018D09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B3DAE2-79B6-4386-AD62-8510E1CAED6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{48510476-7EAF-4049-AE02-C36CE8CD78F1}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
   <si>
     <t>Contactless water sensor</t>
   </si>
@@ -356,13 +356,58 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>R1+R2</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>R2/(R1+R2) = Vout/Vin = 3/12 = 1/4</t>
+  </si>
+  <si>
+    <t>4R2 = R1 + R2</t>
+  </si>
+  <si>
+    <t>3R2 = R1</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>мА</t>
+  </si>
+  <si>
+    <t>Ом</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Вт</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,8 +511,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +593,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -553,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -584,6 +643,22 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7038,132 +7113,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>234013</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>148616</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>32425</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>37325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Блок-схема: узел 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339C2014-4F27-4ED6-895F-468B7D3BEECF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1052758" y="883595"/>
-          <a:ext cx="71327" cy="72453"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1631</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>151318</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>72958</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>40027</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Блок-схема: узел 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1C0CDE-356F-4467-B5C7-824F2EE08D11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1639120" y="886297"/>
-          <a:ext cx="71327" cy="72453"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>234013</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -7895,7 +7844,7 @@
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
-          <a:headEnd type="arrow"/>
+          <a:headEnd type="oval"/>
           <a:tailEnd type="oval"/>
         </a:ln>
       </xdr:spPr>
@@ -8019,7 +7968,7 @@
               <a:lumMod val="85000"/>
             </a:schemeClr>
           </a:solidFill>
-          <a:headEnd type="arrow"/>
+          <a:headEnd type="none"/>
           <a:tailEnd type="none"/>
         </a:ln>
       </xdr:spPr>
@@ -8048,10 +7997,10 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8065,9 +8014,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2729149" y="1102469"/>
-          <a:ext cx="545830" cy="0"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2730500" y="1104901"/>
+          <a:ext cx="4641850" cy="368299"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8107,10 +8056,10 @@
       <xdr:rowOff>183744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>183744</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8124,9 +8073,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1642893" y="367489"/>
-          <a:ext cx="1632086" cy="0"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1643704" y="367894"/>
+          <a:ext cx="4363396" cy="184556"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8139,7 +8088,7 @@
             </a:schemeClr>
           </a:solidFill>
           <a:headEnd type="none"/>
-          <a:tailEnd type="none"/>
+          <a:tailEnd type="oval"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -8185,8 +8134,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1072746" y="1956340"/>
-          <a:ext cx="599872" cy="133350"/>
+          <a:off x="1073151" y="1960393"/>
+          <a:ext cx="600278" cy="133756"/>
           <a:chOff x="6400800" y="3251200"/>
           <a:chExt cx="685800" cy="133350"/>
         </a:xfrm>
@@ -8234,7 +8183,7 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="Прямоугольник: скругленные углы 36">
+          <xdr:cNvPr id="37" name="Стрелка: влево 36">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32EE7A35-18E7-4918-BFAA-44D9D406DE61}"/>
@@ -8248,7 +8197,7 @@
             <a:off x="6572250" y="3251200"/>
             <a:ext cx="330200" cy="133350"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
+          <a:prstGeom prst="leftArrow">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
@@ -8306,12 +8255,57 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1869874" y="1967149"/>
-          <a:ext cx="599872" cy="133350"/>
+          <a:off x="1870685" y="1971202"/>
+          <a:ext cx="600277" cy="133756"/>
           <a:chOff x="6400800" y="3251200"/>
           <a:chExt cx="685800" cy="133350"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Стрелка: влево 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870725B2-DBDA-4560-A85F-AEDF51688E70}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6572250" y="3251200"/>
+            <a:ext cx="330200" cy="133350"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="39" name="Прямая соединительная линия 38">
@@ -8353,51 +8347,6 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="Прямоугольник: скругленные углы 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870725B2-DBDA-4560-A85F-AEDF51688E70}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6572250" y="3251200"/>
-            <a:ext cx="330200" cy="133350"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ru-RU" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -8577,172 +8526,527 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273048</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>118893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>251025</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68499</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="Группа 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED84C1C-3FE1-4493-B401-4B215AAB93CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2184398" y="6748293"/>
+          <a:ext cx="1070177" cy="133756"/>
+          <a:chOff x="5834736" y="3251200"/>
+          <a:chExt cx="1251866" cy="133350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="44" name="Прямая соединительная линия 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F486B66-DBA0-460C-AB93-699DED4F1923}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5834736" y="3314700"/>
+            <a:ext cx="1251866" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="Прямоугольник: скругленные углы 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3213A3E8-518C-4D2B-B633-079ADCEC247B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6572250" y="3251200"/>
+            <a:ext cx="330200" cy="133350"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>273049</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>70256</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="57" name="Группа 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8A8BB1-A594-480C-B8CA-E66099328C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3257549" y="6750050"/>
+          <a:ext cx="819150" cy="133756"/>
+          <a:chOff x="6400800" y="3251200"/>
+          <a:chExt cx="935855" cy="133350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="58" name="Прямая соединительная линия 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30D9862-5B5C-444F-8A25-2CDD9829464E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6400800" y="3314507"/>
+            <a:ext cx="935855" cy="192"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="Прямоугольник: скругленные углы 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61A8A3B-AC15-4CF6-A98F-564914FEA26A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6572250" y="3251200"/>
+            <a:ext cx="330200" cy="133350"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1AFF56-F43D-4F0A-A4FE-E5F77D6157AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="2749550"/>
+          <a:ext cx="0" cy="4051300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>70256</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>8106</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Прямая соединительная линия 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F85232A3-E386-497C-99E1-4B78CB719424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="6813550"/>
+          <a:ext cx="0" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>73337</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95665</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="TextBox 45">
+        <xdr:cNvPr id="61" name="Овал 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB6679E-97BD-4572-9184-80B53F43149A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8123E15-D1FA-4C14-8EC4-D6F304B7F362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="818745" y="3123660"/>
-          <a:ext cx="889000" cy="375595"/>
+          <a:off x="1438587" y="7918450"/>
+          <a:ext cx="472763" cy="463965"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>D0</a:t>
+          </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Рисунок 61" descr="deviatore_schema_funzionamento">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F893BA47-277A-4E37-9EFE-DC2888474D62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12020550" y="838200"/>
+          <a:ext cx="4572000" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>202660</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>175639</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="TextBox 46">
+        <xdr:cNvPr id="28" name="Прямоугольник 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB65ED84-6DBC-49AB-A7E0-9CF65ABDC359}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7319736-523E-42CE-A159-8E2F13EB0963}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1840149" y="3115554"/>
-          <a:ext cx="889000" cy="375595"/>
+          <a:off x="7099300" y="184150"/>
+          <a:ext cx="1638300" cy="736600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>234013</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>16213</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>32425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88665</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Блок-схема: узел 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD15A680-6E3D-4962-AB41-CD094D824B4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1052758" y="3139873"/>
-          <a:ext cx="71327" cy="72452"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="4472C4">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -8774,23 +9078,375 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>234013</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>16213</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>32426</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88665</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Прямая со стрелкой 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDC8516-22E5-4D8D-B5E4-9ABFE42ABD41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6007100" y="552450"/>
+          <a:ext cx="1365250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Прямая со стрелкой 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E9AD14-ABEF-4D63-B1A6-A4DE00DA2627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8191500" y="368300"/>
+          <a:ext cx="1092200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Прямая со стрелкой 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC3AECE-9CD1-432C-9EB6-DD1D0F57943D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8191500" y="736600"/>
+          <a:ext cx="1365250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Прямая со стрелкой 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE12B01-F0A5-4B5D-AA24-F3AAE4FF13A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7353300" y="368300"/>
+          <a:ext cx="819150" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Прямая со стрелкой 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DF3E20-1FD1-4DAB-A420-A38BA1AEBD0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9283700" y="368300"/>
+          <a:ext cx="0" cy="3498850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Прямая со стрелкой 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C032E44A-975F-4BA2-9E6A-F21E60565A87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9556750" y="736600"/>
+          <a:ext cx="0" cy="3130550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Блок-схема: узел 48">
+        <xdr:cNvPr id="78" name="Прямоугольник 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097D57EE-F650-4F86-A07F-4A81E2E4BD0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{307DBAC2-EF98-4A9F-815C-EA2D62A09002}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8798,14 +9454,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1325673" y="3139873"/>
-          <a:ext cx="71327" cy="72452"/>
+          <a:off x="7099300" y="1104900"/>
+          <a:ext cx="1638300" cy="736600"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
+          <a:srgbClr val="4472C4">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -8837,23 +9495,964 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Прямая со стрелкой 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AA9727-A82A-4651-854A-072B9A2D6AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7353300" y="1473200"/>
+          <a:ext cx="819150" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Прямая со стрелкой 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D2404C-9FE7-4C34-A119-C5D00B75FD85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8223250" y="1289050"/>
+          <a:ext cx="1060450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Прямая со стрелкой 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A36D7D-C276-4689-9C7B-B63F0FBFB6C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8191500" y="1657350"/>
+          <a:ext cx="1365250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>269142</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>10809</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>178749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>67554</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>83261</xdr:rowOff>
+      <xdr:colOff>6560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>178749</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Прямая соединительная линия 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120ED300-546E-4626-A0F8-241E36CAC2FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1365250" y="2756849"/>
+          <a:ext cx="279610" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Прямая соединительная линия 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64168903-0664-45D3-8850-71AFF5D041E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1092201" y="2578100"/>
+          <a:ext cx="273049" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266491</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>178746</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Прямая соединительная линия 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2FDD4D-A31E-4B0C-AFA9-E0BCCCBE9D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2177841" y="2578100"/>
+          <a:ext cx="279609" cy="178746"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="Прямая соединительная линия 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F27765-4225-4CA0-9673-1B1E3C3E0B4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1911352" y="2578100"/>
+          <a:ext cx="273048" cy="184150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Прямая соединительная линия 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72632887-E2C0-4A90-A423-A6A7DA63D502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4076700" y="3683000"/>
+          <a:ext cx="5461000" cy="3130550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>273048</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>118893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251025</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68499</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="122" name="Группа 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AB9D316-B424-4923-B192-B31BB4E60054}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="273048" y="6748293"/>
+          <a:ext cx="797127" cy="133756"/>
+          <a:chOff x="5834736" y="3251200"/>
+          <a:chExt cx="1251866" cy="133350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="123" name="Прямая соединительная линия 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53A67CC-A661-4194-A6DD-2FCCB86093B9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5834736" y="3314700"/>
+            <a:ext cx="1251866" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="124" name="Прямоугольник: скругленные углы 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43251F66-3D62-4E87-B1C2-96D6346906FD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6572250" y="3251200"/>
+            <a:ext cx="330200" cy="133350"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>273049</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>70256</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="125" name="Группа 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C867EDA1-78B6-4AAD-809D-F07BC421C7BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1073149" y="6750050"/>
+          <a:ext cx="838200" cy="133756"/>
+          <a:chOff x="6400800" y="3251200"/>
+          <a:chExt cx="935855" cy="133350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="126" name="Прямая соединительная линия 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7634F41E-41DB-4102-9E05-E452BCA1AF68}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="6400800" y="3314507"/>
+            <a:ext cx="935855" cy="192"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="127" name="Прямоугольник: скругленные углы 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B973A8-679B-4B68-9C3F-6ED79736A90E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6572250" y="3251200"/>
+            <a:ext cx="330200" cy="133350"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="Прямая соединительная линия 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF74727-0807-4396-9950-D6BA3FED6518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257550" y="6813550"/>
+          <a:ext cx="0" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>73337</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95665</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Блок-схема: узел 49">
+        <xdr:cNvPr id="129" name="Овал 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51BC104C-25E0-4BBA-A347-631246996CA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC85B170-5328-4354-AA38-A89ABC774303}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3076887" y="7918450"/>
+          <a:ext cx="453713" cy="463965"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="Прямая соединительная линия 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14DAFD7-9A04-4550-BFF8-A67353235AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1911350" y="2578100"/>
+          <a:ext cx="7353300" cy="4235450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Прямая соединительная линия 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876549CC-FC3D-433C-AE9E-19282DAF1CD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="273050" y="2762250"/>
+          <a:ext cx="1092200" cy="4051300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>234013</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>32425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Блок-схема: узел 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339C2014-4F27-4ED6-895F-468B7D3BEECF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8861,8 +10460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1633716" y="3134469"/>
-          <a:ext cx="71327" cy="72452"/>
+          <a:off x="1052758" y="883595"/>
+          <a:ext cx="71327" cy="72453"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -8901,22 +10500,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>204291</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>10809</xdr:rowOff>
+      <xdr:colOff>1631</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>151318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2703</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>83261</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>72958</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40027</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Блок-схема: узел 50">
+        <xdr:cNvPr id="5" name="Блок-схема: узел 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89EE56B-C531-4983-A5A6-27C51227C57C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1C0CDE-356F-4467-B5C7-824F2EE08D11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8924,8 +10523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1841780" y="3134469"/>
-          <a:ext cx="71327" cy="72452"/>
+          <a:off x="1639120" y="886297"/>
+          <a:ext cx="71327" cy="72453"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -8959,244 +10558,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>236716</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>10809</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>35128</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>83261</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Блок-схема: узел 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E29B1EA-8ED2-4841-88DF-50635F5586F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2147120" y="3134469"/>
-          <a:ext cx="71327" cy="72452"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>239418</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>10809</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>37830</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>83261</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Блок-схема: узел 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1F9A96-51FA-4DD2-BA17-7CEE31DD9591}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2422737" y="3134469"/>
-          <a:ext cx="71327" cy="72452"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2702</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>10808</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Прямая соединительная линия 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA0BB609-B034-461C-8A44-8A4B5B24C86F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1913106" y="3501957"/>
-          <a:ext cx="543128" cy="172937"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>13511</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>272915</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Прямая соединительная линия 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97612B71-28EB-48E9-90A2-24ADC55FF4D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1091660" y="3504660"/>
-          <a:ext cx="545829" cy="170234"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10007,35 +11368,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499C18B1-AF77-434B-B53B-6B071AD3B070}">
-  <dimension ref="D11:J17"/>
+  <dimension ref="C2:AJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU23" sqref="AU23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="3.6328125" customWidth="1"/>
+    <col min="17" max="17" width="3.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D16" s="24" t="s">
         <v>107</v>
       </c>
@@ -10055,24 +11430,151 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D17" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" t="s">
-        <v>106</v>
-      </c>
-      <c r="J17" t="s">
-        <v>107</v>
+    <row r="22" spans="34:36" x14ac:dyDescent="0.35">
+      <c r="AH22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="K36" t="s">
+        <v>110</v>
+      </c>
+      <c r="N36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="V38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="M39" t="s">
+        <v>112</v>
+      </c>
+      <c r="T39" t="s">
+        <v>112</v>
+      </c>
+      <c r="U39" t="s">
+        <v>113</v>
+      </c>
+      <c r="V39" t="s">
+        <v>114</v>
+      </c>
+      <c r="X39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="T41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="T43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="T44" t="s">
+        <v>118</v>
+      </c>
+      <c r="X44" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="Q46" t="s">
+        <v>110</v>
+      </c>
+      <c r="R46" s="30">
+        <f>R47*X44</f>
+        <v>30000</v>
+      </c>
+      <c r="S46" s="26"/>
+      <c r="T46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="Q47" t="s">
+        <v>111</v>
+      </c>
+      <c r="R47" s="29">
+        <v>10000</v>
+      </c>
+      <c r="S47" s="29"/>
+      <c r="T47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="Q48" t="s">
+        <v>119</v>
+      </c>
+      <c r="R48" s="27">
+        <f>12/(R46+R47)*1000</f>
+        <v>0.3</v>
+      </c>
+      <c r="S48" s="27"/>
+      <c r="T48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="17:20" x14ac:dyDescent="0.35">
+      <c r="Q49" t="s">
+        <v>122</v>
+      </c>
+      <c r="R49" s="25">
+        <f>R48*12/1000</f>
+        <v>3.5999999999999995E-3</v>
+      </c>
+      <c r="S49" s="25"/>
+      <c r="T49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="17:20" x14ac:dyDescent="0.35">
+      <c r="Q50" t="s">
+        <v>115</v>
+      </c>
+      <c r="R50" s="25">
+        <v>12</v>
+      </c>
+      <c r="S50" s="25"/>
+      <c r="T50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="17:20" x14ac:dyDescent="0.35">
+      <c r="Q51" t="s">
+        <v>112</v>
+      </c>
+      <c r="R51" s="25">
+        <f>R47/(R46+R47)*R50</f>
+        <v>3</v>
+      </c>
+      <c r="S51" s="25"/>
+      <c r="T51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="17:20" x14ac:dyDescent="0.35">
+      <c r="R52">
+        <f>3.3/2</f>
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>
